--- a/plantilla_mantenimiento.xlsx
+++ b/plantilla_mantenimiento.xlsx
@@ -20,31 +20,31 @@
     <t>INSTRUCCIONES:</t>
   </si>
   <si>
-    <t>1. Ve a la pestaña "Datos" para rellenar la información de los racks</t>
-  </si>
-  <si>
-    <t>2. Rellena OBLIGATORIAMENTE la columna: rack_id (nombre del rack)</t>
+    <t>1. Ve a la pestana "Datos" para rellenar la informacion de los racks</t>
+  </si>
+  <si>
+    <t>2. Rellena OBLIGATORIAMENTE la columna: rackName (nombre del rack)</t>
   </si>
   <si>
     <t>3. La columna reason es opcional para especificar el motivo del mantenimiento</t>
   </si>
   <si>
-    <t>4. El sistema buscará automáticamente los datos del rack en la API</t>
-  </si>
-  <si>
-    <t>5. Si no encuentra el rack, lo agregará solo con el nombre proporcionado</t>
+    <t>4. El sistema buscara automaticamente los datos del rack en la API</t>
+  </si>
+  <si>
+    <t>5. Si no encuentra el rack, lo agregara solo con el nombre proporcionado</t>
   </si>
   <si>
     <t>6. No modifiques el nombre de la columna (primera fila)</t>
   </si>
   <si>
-    <t>7. No dejes filas vacías entre racks</t>
-  </si>
-  <si>
-    <t>8. Máximo 1000 racks por archivo</t>
-  </si>
-  <si>
-    <t>9. Guarda el archivo y súbelo en la aplicación</t>
+    <t>7. No dejes filas vacias entre racks</t>
+  </si>
+  <si>
+    <t>8. Maximo 1000 racks por archivo</t>
+  </si>
+  <si>
+    <t>9. Guarda el archivo y subelo en la aplicacion</t>
   </si>
   <si>
     <t>DESCRIPCIÓN DE COLUMNAS:</t>
@@ -62,13 +62,13 @@
     <t>Ejemplo</t>
   </si>
   <si>
-    <t>rack_id</t>
+    <t>rackName</t>
   </si>
   <si>
     <t>OBLIGATORIO</t>
   </si>
   <si>
-    <t>Nombre del rack (el sistema buscará automáticamente el resto de datos)</t>
+    <t>Nombre del rack (el sistema buscara automaticamente el resto de datos)</t>
   </si>
   <si>
     <t>RACK-001</t>
@@ -80,7 +80,7 @@
     <t>Opcional</t>
   </si>
   <si>
-    <t>Razón del mantenimiento</t>
+    <t>Razon del mantenimiento</t>
   </si>
   <si>
     <t>Mantenimiento preventivo</t>
@@ -92,7 +92,7 @@
     <t>RACK-003</t>
   </si>
   <si>
-    <t>Reparación urgente</t>
+    <t>Reparacion urgente</t>
   </si>
   <si>
     <t>NOTA: Las filas 2-4 son ejemplos. Bórralas y añade tus datos debajo.</t>

--- a/plantilla_mantenimiento.xlsx
+++ b/plantilla_mantenimiento.xlsx
@@ -20,31 +20,31 @@
     <t>INSTRUCCIONES:</t>
   </si>
   <si>
-    <t>1. Ve a la pestana "Datos" para rellenar la informacion de los racks</t>
-  </si>
-  <si>
-    <t>2. Rellena OBLIGATORIAMENTE la columna: rackName (nombre del rack)</t>
+    <t>1. Ve a la pestaña "Datos" para rellenar la información de los racks</t>
+  </si>
+  <si>
+    <t>2. Rellena OBLIGATORIAMENTE la columna: rack_id (nombre del rack)</t>
   </si>
   <si>
     <t>3. La columna reason es opcional para especificar el motivo del mantenimiento</t>
   </si>
   <si>
-    <t>4. El sistema buscara automaticamente los datos del rack en la API</t>
-  </si>
-  <si>
-    <t>5. Si no encuentra el rack, lo agregara solo con el nombre proporcionado</t>
+    <t>4. El sistema buscará automáticamente los datos del rack en la API</t>
+  </si>
+  <si>
+    <t>5. Si no encuentra el rack, lo agregará solo con el nombre proporcionado</t>
   </si>
   <si>
     <t>6. No modifiques el nombre de la columna (primera fila)</t>
   </si>
   <si>
-    <t>7. No dejes filas vacias entre racks</t>
-  </si>
-  <si>
-    <t>8. Maximo 1000 racks por archivo</t>
-  </si>
-  <si>
-    <t>9. Guarda el archivo y subelo en la aplicacion</t>
+    <t>7. No dejes filas vacías entre racks</t>
+  </si>
+  <si>
+    <t>8. Máximo 1000 racks por archivo</t>
+  </si>
+  <si>
+    <t>9. Guarda el archivo y súbelo en la aplicación</t>
   </si>
   <si>
     <t>DESCRIPCIÓN DE COLUMNAS:</t>
@@ -62,13 +62,13 @@
     <t>Ejemplo</t>
   </si>
   <si>
-    <t>rackName</t>
+    <t>rack_id</t>
   </si>
   <si>
     <t>OBLIGATORIO</t>
   </si>
   <si>
-    <t>Nombre del rack (el sistema buscara automaticamente el resto de datos)</t>
+    <t>Nombre del rack (el sistema buscará automáticamente el resto de datos)</t>
   </si>
   <si>
     <t>RACK-001</t>
@@ -80,7 +80,7 @@
     <t>Opcional</t>
   </si>
   <si>
-    <t>Razon del mantenimiento</t>
+    <t>Razón del mantenimiento</t>
   </si>
   <si>
     <t>Mantenimiento preventivo</t>
@@ -92,7 +92,7 @@
     <t>RACK-003</t>
   </si>
   <si>
-    <t>Reparacion urgente</t>
+    <t>Reparación urgente</t>
   </si>
   <si>
     <t>NOTA: Las filas 2-4 son ejemplos. Bórralas y añade tus datos debajo.</t>

--- a/plantilla_mantenimiento.xlsx
+++ b/plantilla_mantenimiento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>PLANTILLA DE IMPORTACIÓN MASIVA DE RACKS A MANTENIMIENTO</t>
   </si>
@@ -93,16 +93,13 @@
   </si>
   <si>
     <t>Reparacion urgente</t>
-  </si>
-  <si>
-    <t>NOTA: Las filas 2-4 son ejemplos. Bórralas y añade tus datos debajo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -125,10 +122,6 @@
     <font>
       <b/>
       <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <i/>
-      <color rgb="FFFF0000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -161,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -170,7 +163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -668,16 +660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
